--- a/algoritmen_prestaties.xlsx
+++ b/algoritmen_prestaties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lobkewilmink/Documents/Programming/5. algoritmen/scheconometrie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B277CD5-52E9-1D4D-914D-05B1AA56D1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E91940-A8C2-FE41-A962-74998817B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{B180E2EB-B3F6-7948-BCFA-F88CFC065AAD}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="16600" activeTab="3" xr2:uid="{B180E2EB-B3F6-7948-BCFA-F88CFC065AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Manhattan" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>Kosten</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Percentage gelukte grids (100 stuks geprobeerd)</t>
+  </si>
+  <si>
+    <t>Tijd voor alles minder dan 5 sec</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>Verwachte tijd voor 100 iteraties</t>
+  </si>
+  <si>
+    <t>1,5 min</t>
+  </si>
+  <si>
+    <t>1 min</t>
   </si>
 </sst>
 </file>
@@ -286,13 +301,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -634,7 +649,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,25 +670,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
@@ -683,18 +698,18 @@
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -734,32 +749,20 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>327</v>
-      </c>
-      <c r="D4" s="2">
-        <v>327</v>
-      </c>
-      <c r="E4" s="2">
-        <v>329</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="M4" s="7" t="s">
         <v>0</v>
       </c>
@@ -768,19 +771,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>3666</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3064</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2764</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -793,40 +790,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>3388</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3388</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5792</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>19579</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20813</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17471</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -839,19 +824,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>37723</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36525</v>
-      </c>
-      <c r="E8" s="2">
-        <v>34705</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -864,19 +843,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>63431</v>
-      </c>
-      <c r="D9" s="2">
-        <v>62857</v>
-      </c>
-      <c r="E9" s="2">
-        <v>49895</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -889,21 +862,15 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>74400</v>
-      </c>
-      <c r="D10" s="2">
-        <v>61754</v>
-      </c>
-      <c r="E10" s="2">
-        <v>59630</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -916,39 +883,29 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>73808</v>
-      </c>
-      <c r="D11" s="2">
-        <v>77698</v>
-      </c>
-      <c r="E11" s="2">
-        <v>62050</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>115533</v>
-      </c>
-      <c r="D12" s="2">
-        <v>120345</v>
-      </c>
-      <c r="E12" s="2">
-        <v>90543</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -956,15 +913,15 @@
     <row r="13" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AE4ECA-FC34-DA42-9543-2C6BFB6901ED}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,25 +954,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1025,18 +982,18 @@
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1072,11 +1029,11 @@
         <v>20</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1098,7 +1055,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1074,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1087,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1151,7 +1108,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1127,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1146,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1210,7 +1167,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1223,14 +1180,16 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1257,7 +1216,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,25 +1237,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1306,18 +1265,18 @@
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1353,11 +1312,11 @@
         <v>20</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1379,7 +1338,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1357,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1370,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1432,7 +1391,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1410,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1429,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1491,7 +1450,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1504,17 +1463,24 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1537,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB75CF10-DE75-EA47-B8A4-C9CCACA6DCE6}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,25 +1525,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1587,18 +1553,18 @@
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1634,11 +1600,11 @@
         <v>20</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1660,7 +1626,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1645,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1692,7 +1658,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1713,7 +1679,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1698,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1717,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1772,7 +1738,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1785,17 +1751,24 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
